--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1359">
   <si>
     <t>identifier</t>
   </si>
@@ -2097,6 +2097,2250 @@
   </si>
   <si>
     <t>ZWL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AF</t>
+  </si>
+  <si>
+    <t>AFGHANISTAN</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>country_iso2</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AX</t>
+  </si>
+  <si>
+    <t>ÅLAND ISLANDS</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AL</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DZ</t>
+  </si>
+  <si>
+    <t>ALGERIA</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AS</t>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AD</t>
+  </si>
+  <si>
+    <t>ANDORRA</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AO</t>
+  </si>
+  <si>
+    <t>ANGOLA</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AI</t>
+  </si>
+  <si>
+    <t>ANGUILLA</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AQ</t>
+  </si>
+  <si>
+    <t>ANTARCTICA</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AG</t>
+  </si>
+  <si>
+    <t>ANTIGUA AND BARBUDA</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AR</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AM</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AW</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AU</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AT</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AZ</t>
+  </si>
+  <si>
+    <t>AZERBAIJAN</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BS</t>
+  </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BH</t>
+  </si>
+  <si>
+    <t>BAHRAIN</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BD</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BB</t>
+  </si>
+  <si>
+    <t>BARBADOS</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BY</t>
+  </si>
+  <si>
+    <t>BELARUS</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BE</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BZ</t>
+  </si>
+  <si>
+    <t>BELIZE</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BJ</t>
+  </si>
+  <si>
+    <t>BENIN</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BM</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BT</t>
+  </si>
+  <si>
+    <t>BHUTAN</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BO</t>
+  </si>
+  <si>
+    <t>BOLIVIA, PLURINATIONAL STATE OF</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BQ</t>
+  </si>
+  <si>
+    <t>BONAIRE, SINT EUSTATIUS AND SABA</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BA</t>
+  </si>
+  <si>
+    <t>BOSNIA AND HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BW</t>
+  </si>
+  <si>
+    <t>BOTSWANA</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BV</t>
+  </si>
+  <si>
+    <t>BOUVET ISLAND</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BR</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IO</t>
+  </si>
+  <si>
+    <t>BRITISH INDIAN OCEAN TERRITORY</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BN</t>
+  </si>
+  <si>
+    <t>BRUNEI DARUSSALAM</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BG</t>
+  </si>
+  <si>
+    <t>BULGARIA</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BF</t>
+  </si>
+  <si>
+    <t>BURKINA FASO</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BI</t>
+  </si>
+  <si>
+    <t>BURUNDI</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KH</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CM</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CA</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CV</t>
+  </si>
+  <si>
+    <t>CAPE VERDE</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KY</t>
+  </si>
+  <si>
+    <t>CAYMAN ISLANDS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CF</t>
+  </si>
+  <si>
+    <t>CENTRAL AFRICAN REPUBLIC</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TD</t>
+  </si>
+  <si>
+    <t>CHAD</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CL</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CN</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CX</t>
+  </si>
+  <si>
+    <t>CHRISTMAS ISLAND</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CC</t>
+  </si>
+  <si>
+    <t>COCOS (KEELING) ISLANDS</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CO</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KM</t>
+  </si>
+  <si>
+    <t>COMOROS</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CG</t>
+  </si>
+  <si>
+    <t>CONGO</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>CONGO, THE DEMOCRATIC REPUBLIC OF THE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CK</t>
+  </si>
+  <si>
+    <t>COOK ISLANDS</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CR</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CI</t>
+  </si>
+  <si>
+    <t>CÔTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HR</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CU</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CW</t>
+  </si>
+  <si>
+    <t>CURAÇAO</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CY</t>
+  </si>
+  <si>
+    <t>CYPRUS</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CZ</t>
+  </si>
+  <si>
+    <t>CZECH REPUBLIC</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DK</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DJ</t>
+  </si>
+  <si>
+    <t>DJIBOUTI</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DM</t>
+  </si>
+  <si>
+    <t>DOMINICA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DO</t>
+  </si>
+  <si>
+    <t>DOMINICAN REPUBLIC</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_EC</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_EG</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SV</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GQ</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GUINEA</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ER</t>
+  </si>
+  <si>
+    <t>ERITREA</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_EE</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ET</t>
+  </si>
+  <si>
+    <t>ETHIOPIA</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FK</t>
+  </si>
+  <si>
+    <t>FALKLAND ISLANDS (MALVINAS)</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FO</t>
+  </si>
+  <si>
+    <t>FAROE ISLANDS</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FJ</t>
+  </si>
+  <si>
+    <t>FIJI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FI</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FR</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GF</t>
+  </si>
+  <si>
+    <t>FRENCH GUIANA</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PF</t>
+  </si>
+  <si>
+    <t>FRENCH POLYNESIA</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TF</t>
+  </si>
+  <si>
+    <t>FRENCH SOUTHERN TERRITORIES</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GA</t>
+  </si>
+  <si>
+    <t>GABON</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GM</t>
+  </si>
+  <si>
+    <t>GAMBIA</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GE</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_DE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GH</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GI</t>
+  </si>
+  <si>
+    <t>GIBRALTAR</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GR</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GL</t>
+  </si>
+  <si>
+    <t>GREENLAND</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GD</t>
+  </si>
+  <si>
+    <t>GRENADA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GP</t>
+  </si>
+  <si>
+    <t>GUADELOUPE</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GU</t>
+  </si>
+  <si>
+    <t>GUAM</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GT</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GG</t>
+  </si>
+  <si>
+    <t>GUERNSEY</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GN</t>
+  </si>
+  <si>
+    <t>GUINEA</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GW</t>
+  </si>
+  <si>
+    <t>GUINEA-BISSAU</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GY</t>
+  </si>
+  <si>
+    <t>GUYANA</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HT</t>
+  </si>
+  <si>
+    <t>HAITI</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HM</t>
+  </si>
+  <si>
+    <t>HEARD ISLAND AND MCDONALD ISLANDS</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VA</t>
+  </si>
+  <si>
+    <t>HOLY SEE (VATICAN CITY STATE)</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HN</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HK</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_HU</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IS</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IN</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ID</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IR</t>
+  </si>
+  <si>
+    <t>IRAN, ISLAMIC REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IQ</t>
+  </si>
+  <si>
+    <t>IRAQ</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IE</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IM</t>
+  </si>
+  <si>
+    <t>ISLE OF MAN</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_IT</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_JM</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_JP</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_JE</t>
+  </si>
+  <si>
+    <t>JERSEY</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_JO</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KZ</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KE</t>
+  </si>
+  <si>
+    <t>KENYA</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KI</t>
+  </si>
+  <si>
+    <t>KIRIBATI</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KP</t>
+  </si>
+  <si>
+    <t>KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KR</t>
+  </si>
+  <si>
+    <t>KOREA, REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KW</t>
+  </si>
+  <si>
+    <t>KUWAIT</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KG</t>
+  </si>
+  <si>
+    <t>KYRGYZSTAN</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LA</t>
+  </si>
+  <si>
+    <t>LAO PEOPLE'S DEMOCRATIC REPUBLIC</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LV</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LB</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LS</t>
+  </si>
+  <si>
+    <t>LESOTHO</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LR</t>
+  </si>
+  <si>
+    <t>LIBERIA</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LY</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LI</t>
+  </si>
+  <si>
+    <t>LIECHTENSTEIN</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LT</t>
+  </si>
+  <si>
+    <t>LITHUANIA</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LU</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MO</t>
+  </si>
+  <si>
+    <t>MACAO</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MK</t>
+  </si>
+  <si>
+    <t>MACEDONIA, THE FORMER YUGOSLAV REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MG</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MW</t>
+  </si>
+  <si>
+    <t>MALAWI</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MY</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MV</t>
+  </si>
+  <si>
+    <t>MALDIVES</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ML</t>
+  </si>
+  <si>
+    <t>MALI</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MT</t>
+  </si>
+  <si>
+    <t>MALTA</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MH</t>
+  </si>
+  <si>
+    <t>MARSHALL ISLANDS</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MQ</t>
+  </si>
+  <si>
+    <t>MARTINIQUE</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MR</t>
+  </si>
+  <si>
+    <t>MAURITANIA</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MU</t>
+  </si>
+  <si>
+    <t>MAURITIUS</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_YT</t>
+  </si>
+  <si>
+    <t>MAYOTTE</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MX</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_FM</t>
+  </si>
+  <si>
+    <t>MICRONESIA, FEDERATED STATES OF</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MD</t>
+  </si>
+  <si>
+    <t>MOLDOVA, REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MC</t>
+  </si>
+  <si>
+    <t>MONACO</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MN</t>
+  </si>
+  <si>
+    <t>MONGOLIA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ME</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MS</t>
+  </si>
+  <si>
+    <t>MONTSERRAT</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MA</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MZ</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MM</t>
+  </si>
+  <si>
+    <t>MYANMAR</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NA</t>
+  </si>
+  <si>
+    <t>NAMIBIA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NR</t>
+  </si>
+  <si>
+    <t>NAURU</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NP</t>
+  </si>
+  <si>
+    <t>NEPAL</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NL</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NC</t>
+  </si>
+  <si>
+    <t>NEW CALEDONIA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NZ</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NI</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NE</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NG</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NU</t>
+  </si>
+  <si>
+    <t>NIUE</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NF</t>
+  </si>
+  <si>
+    <t>NORFOLK ISLAND</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MP</t>
+  </si>
+  <si>
+    <t>NORTHERN MARIANA ISLANDS</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_NO</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_OM</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PK</t>
+  </si>
+  <si>
+    <t>PAKISTAN</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PW</t>
+  </si>
+  <si>
+    <t>PALAU</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PS</t>
+  </si>
+  <si>
+    <t>PALESTINE, STATE OF</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PA</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PG</t>
+  </si>
+  <si>
+    <t>PAPUA NEW GUINEA</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PY</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PE</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PH</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PN</t>
+  </si>
+  <si>
+    <t>PITCAIRN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PL</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PT</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PR</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_QA</t>
+  </si>
+  <si>
+    <t>QATAR</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_RE</t>
+  </si>
+  <si>
+    <t>RÉUNION</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_RO</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_RU</t>
+  </si>
+  <si>
+    <t>RUSSIAN FEDERATION</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_RW</t>
+  </si>
+  <si>
+    <t>RWANDA</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_BL</t>
+  </si>
+  <si>
+    <t>SAINT BARTHÉLEMY</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SH</t>
+  </si>
+  <si>
+    <t>SAINT HELENA, ASCENSION AND TRISTAN DA CUNHA</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_KN</t>
+  </si>
+  <si>
+    <t>SAINT KITTS AND NEVIS</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LC</t>
+  </si>
+  <si>
+    <t>SAINT LUCIA</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_MF</t>
+  </si>
+  <si>
+    <t>SAINT MARTIN (FRENCH PART)</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_PM</t>
+  </si>
+  <si>
+    <t>SAINT PIERRE AND MIQUELON</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VC</t>
+  </si>
+  <si>
+    <t>SAINT VINCENT AND THE GRENADINES</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_WS</t>
+  </si>
+  <si>
+    <t>SAMOA</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SM</t>
+  </si>
+  <si>
+    <t>SAN MARINO</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ST</t>
+  </si>
+  <si>
+    <t>SAO TOME AND PRINCIPE</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SA</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SN</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_RS</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SC</t>
+  </si>
+  <si>
+    <t>SEYCHELLES</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SL</t>
+  </si>
+  <si>
+    <t>SIERRA LEONE</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SG</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SX</t>
+  </si>
+  <si>
+    <t>SINT MAARTEN (DUTCH PART)</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SK</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SI</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SB</t>
+  </si>
+  <si>
+    <t>SOLOMON ISLANDS</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SO</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ZA</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GS</t>
+  </si>
+  <si>
+    <t>SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SS</t>
+  </si>
+  <si>
+    <t>SOUTH SUDAN</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ES</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_LK</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SD</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SR</t>
+  </si>
+  <si>
+    <t>SURINAME</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SJ</t>
+  </si>
+  <si>
+    <t>SVALBARD AND JAN MAYEN</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SZ</t>
+  </si>
+  <si>
+    <t>SWAZILAND</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SE</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_CH</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_SY</t>
+  </si>
+  <si>
+    <t>SYRIAN ARAB REPUBLIC</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TW</t>
+  </si>
+  <si>
+    <t>TAIWAN, PROVINCE OF CHINA</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TJ</t>
+  </si>
+  <si>
+    <t>TAJIKISTAN</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TZ</t>
+  </si>
+  <si>
+    <t>TANZANIA, UNITED REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TH</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TL</t>
+  </si>
+  <si>
+    <t>TIMOR-LESTE</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TG</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TK</t>
+  </si>
+  <si>
+    <t>TOKELAU</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TO</t>
+  </si>
+  <si>
+    <t>TONGA</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TT</t>
+  </si>
+  <si>
+    <t>TRINIDAD AND TOBAGO</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TN</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TR</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TM</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TC</t>
+  </si>
+  <si>
+    <t>TURKS AND CAICOS ISLANDS</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_TV</t>
+  </si>
+  <si>
+    <t>TUVALU</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_UG</t>
+  </si>
+  <si>
+    <t>UGANDA</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_UA</t>
+  </si>
+  <si>
+    <t>UKRAINE</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_AE</t>
+  </si>
+  <si>
+    <t>UNITED ARAB EMIRATES</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_GB</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_US</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_UM</t>
+  </si>
+  <si>
+    <t>UNITED STATES MINOR OUTLYING ISLANDS</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_UY</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_UZ</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VU</t>
+  </si>
+  <si>
+    <t>VANUATU</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VE</t>
+  </si>
+  <si>
+    <t>VENEZUELA, BOLIVARIAN REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VN</t>
+  </si>
+  <si>
+    <t>VIET NAM</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VG</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, BRITISH</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_VI</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, U.S.</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_WF</t>
+  </si>
+  <si>
+    <t>WALLIS AND FUTUNA</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_EH</t>
+  </si>
+  <si>
+    <t>WESTERN SAHARA</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_YE</t>
+  </si>
+  <si>
+    <t>YEMEN</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ZM</t>
+  </si>
+  <si>
+    <t>ZAMBIA</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_ZW</t>
+  </si>
+  <si>
+    <t>ZIMBABWE</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
@@ -2441,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:E453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,339 +8166,4280 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
-    </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B442" s="1"/>
-      <c r="C442" s="1"/>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B443" s="1"/>
-      <c r="C443" s="1"/>
-    </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
-    </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
-    </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>613</v>
+      </c>
+      <c r="D205" t="s">
+        <v>614</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>615</v>
+      </c>
+      <c r="B206" t="s">
+        <v>616</v>
+      </c>
+      <c r="C206" t="s">
+        <v>617</v>
+      </c>
+      <c r="D206" t="s">
+        <v>614</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>618</v>
+      </c>
+      <c r="B207" t="s">
+        <v>619</v>
+      </c>
+      <c r="C207" t="s">
+        <v>620</v>
+      </c>
+      <c r="D207" t="s">
+        <v>614</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>621</v>
+      </c>
+      <c r="B208" t="s">
+        <v>622</v>
+      </c>
+      <c r="C208" t="s">
+        <v>623</v>
+      </c>
+      <c r="D208" t="s">
+        <v>614</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>624</v>
+      </c>
+      <c r="B209" t="s">
+        <v>625</v>
+      </c>
+      <c r="C209" t="s">
+        <v>626</v>
+      </c>
+      <c r="D209" t="s">
+        <v>614</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>627</v>
+      </c>
+      <c r="B210" t="s">
+        <v>628</v>
+      </c>
+      <c r="C210" t="s">
+        <v>629</v>
+      </c>
+      <c r="D210" t="s">
+        <v>614</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>630</v>
+      </c>
+      <c r="B211" t="s">
+        <v>631</v>
+      </c>
+      <c r="C211" t="s">
+        <v>632</v>
+      </c>
+      <c r="D211" t="s">
+        <v>614</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>633</v>
+      </c>
+      <c r="B212" t="s">
+        <v>634</v>
+      </c>
+      <c r="C212" t="s">
+        <v>635</v>
+      </c>
+      <c r="D212" t="s">
+        <v>614</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>636</v>
+      </c>
+      <c r="B213" t="s">
+        <v>637</v>
+      </c>
+      <c r="C213" t="s">
+        <v>638</v>
+      </c>
+      <c r="D213" t="s">
+        <v>614</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>639</v>
+      </c>
+      <c r="B214" t="s">
+        <v>640</v>
+      </c>
+      <c r="C214" t="s">
+        <v>641</v>
+      </c>
+      <c r="D214" t="s">
+        <v>614</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>642</v>
+      </c>
+      <c r="B215" t="s">
+        <v>643</v>
+      </c>
+      <c r="C215" t="s">
+        <v>644</v>
+      </c>
+      <c r="D215" t="s">
+        <v>614</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>645</v>
+      </c>
+      <c r="B216" t="s">
+        <v>646</v>
+      </c>
+      <c r="C216" t="s">
+        <v>647</v>
+      </c>
+      <c r="D216" t="s">
+        <v>614</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>648</v>
+      </c>
+      <c r="B217" t="s">
+        <v>649</v>
+      </c>
+      <c r="C217" t="s">
+        <v>650</v>
+      </c>
+      <c r="D217" t="s">
+        <v>614</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>651</v>
+      </c>
+      <c r="B218" t="s">
+        <v>652</v>
+      </c>
+      <c r="C218" t="s">
+        <v>653</v>
+      </c>
+      <c r="D218" t="s">
+        <v>614</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>654</v>
+      </c>
+      <c r="B219" t="s">
+        <v>655</v>
+      </c>
+      <c r="C219" t="s">
+        <v>656</v>
+      </c>
+      <c r="D219" t="s">
+        <v>614</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>657</v>
+      </c>
+      <c r="B220" t="s">
+        <v>658</v>
+      </c>
+      <c r="C220" t="s">
+        <v>659</v>
+      </c>
+      <c r="D220" t="s">
+        <v>614</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>660</v>
+      </c>
+      <c r="B221" t="s">
+        <v>661</v>
+      </c>
+      <c r="C221" t="s">
+        <v>662</v>
+      </c>
+      <c r="D221" t="s">
+        <v>614</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>663</v>
+      </c>
+      <c r="B222" t="s">
+        <v>664</v>
+      </c>
+      <c r="C222" t="s">
+        <v>665</v>
+      </c>
+      <c r="D222" t="s">
+        <v>614</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>666</v>
+      </c>
+      <c r="B223" t="s">
+        <v>667</v>
+      </c>
+      <c r="C223" t="s">
+        <v>668</v>
+      </c>
+      <c r="D223" t="s">
+        <v>614</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>669</v>
+      </c>
+      <c r="B224" t="s">
+        <v>670</v>
+      </c>
+      <c r="C224" t="s">
+        <v>671</v>
+      </c>
+      <c r="D224" t="s">
+        <v>614</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>672</v>
+      </c>
+      <c r="B225" t="s">
+        <v>673</v>
+      </c>
+      <c r="C225" t="s">
+        <v>674</v>
+      </c>
+      <c r="D225" t="s">
+        <v>614</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>675</v>
+      </c>
+      <c r="B226" t="s">
+        <v>676</v>
+      </c>
+      <c r="C226" t="s">
+        <v>677</v>
+      </c>
+      <c r="D226" t="s">
+        <v>614</v>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>678</v>
+      </c>
+      <c r="B227" t="s">
+        <v>679</v>
+      </c>
+      <c r="C227" t="s">
+        <v>680</v>
+      </c>
+      <c r="D227" t="s">
+        <v>614</v>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>681</v>
+      </c>
+      <c r="B228" t="s">
+        <v>682</v>
+      </c>
+      <c r="C228" t="s">
+        <v>683</v>
+      </c>
+      <c r="D228" t="s">
+        <v>614</v>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" t="s">
+        <v>685</v>
+      </c>
+      <c r="C229" t="s">
+        <v>686</v>
+      </c>
+      <c r="D229" t="s">
+        <v>614</v>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>687</v>
+      </c>
+      <c r="B230" t="s">
+        <v>688</v>
+      </c>
+      <c r="C230" t="s">
+        <v>689</v>
+      </c>
+      <c r="D230" t="s">
+        <v>614</v>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>690</v>
+      </c>
+      <c r="B231" t="s">
+        <v>691</v>
+      </c>
+      <c r="C231" t="s">
+        <v>692</v>
+      </c>
+      <c r="D231" t="s">
+        <v>614</v>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>693</v>
+      </c>
+      <c r="B232" t="s">
+        <v>694</v>
+      </c>
+      <c r="C232" t="s">
+        <v>695</v>
+      </c>
+      <c r="D232" t="s">
+        <v>614</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>696</v>
+      </c>
+      <c r="B233" t="s">
+        <v>697</v>
+      </c>
+      <c r="C233" t="s">
+        <v>698</v>
+      </c>
+      <c r="D233" t="s">
+        <v>614</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>699</v>
+      </c>
+      <c r="B234" t="s">
+        <v>700</v>
+      </c>
+      <c r="C234" t="s">
+        <v>701</v>
+      </c>
+      <c r="D234" t="s">
+        <v>614</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>702</v>
+      </c>
+      <c r="B235" t="s">
+        <v>703</v>
+      </c>
+      <c r="C235" t="s">
+        <v>704</v>
+      </c>
+      <c r="D235" t="s">
+        <v>614</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>705</v>
+      </c>
+      <c r="B236" t="s">
+        <v>706</v>
+      </c>
+      <c r="C236" t="s">
+        <v>707</v>
+      </c>
+      <c r="D236" t="s">
+        <v>614</v>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>708</v>
+      </c>
+      <c r="B237" t="s">
+        <v>709</v>
+      </c>
+      <c r="C237" t="s">
+        <v>710</v>
+      </c>
+      <c r="D237" t="s">
+        <v>614</v>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>711</v>
+      </c>
+      <c r="B238" t="s">
+        <v>712</v>
+      </c>
+      <c r="C238" t="s">
+        <v>713</v>
+      </c>
+      <c r="D238" t="s">
+        <v>614</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>714</v>
+      </c>
+      <c r="B239" t="s">
+        <v>715</v>
+      </c>
+      <c r="C239" t="s">
+        <v>716</v>
+      </c>
+      <c r="D239" t="s">
+        <v>614</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>717</v>
+      </c>
+      <c r="B240" t="s">
+        <v>718</v>
+      </c>
+      <c r="C240" t="s">
+        <v>719</v>
+      </c>
+      <c r="D240" t="s">
+        <v>614</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>720</v>
+      </c>
+      <c r="B241" t="s">
+        <v>721</v>
+      </c>
+      <c r="C241" t="s">
+        <v>722</v>
+      </c>
+      <c r="D241" t="s">
+        <v>614</v>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>723</v>
+      </c>
+      <c r="B242" t="s">
+        <v>724</v>
+      </c>
+      <c r="C242" t="s">
+        <v>725</v>
+      </c>
+      <c r="D242" t="s">
+        <v>614</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>726</v>
+      </c>
+      <c r="B243" t="s">
+        <v>727</v>
+      </c>
+      <c r="C243" t="s">
+        <v>728</v>
+      </c>
+      <c r="D243" t="s">
+        <v>614</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>729</v>
+      </c>
+      <c r="B244" t="s">
+        <v>730</v>
+      </c>
+      <c r="C244" t="s">
+        <v>731</v>
+      </c>
+      <c r="D244" t="s">
+        <v>614</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>732</v>
+      </c>
+      <c r="B245" t="s">
+        <v>733</v>
+      </c>
+      <c r="C245" t="s">
+        <v>734</v>
+      </c>
+      <c r="D245" t="s">
+        <v>614</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>735</v>
+      </c>
+      <c r="B246" t="s">
+        <v>736</v>
+      </c>
+      <c r="C246" t="s">
+        <v>737</v>
+      </c>
+      <c r="D246" t="s">
+        <v>614</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>738</v>
+      </c>
+      <c r="B247" t="s">
+        <v>739</v>
+      </c>
+      <c r="C247" t="s">
+        <v>740</v>
+      </c>
+      <c r="D247" t="s">
+        <v>614</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>741</v>
+      </c>
+      <c r="B248" t="s">
+        <v>742</v>
+      </c>
+      <c r="C248" t="s">
+        <v>743</v>
+      </c>
+      <c r="D248" t="s">
+        <v>614</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>744</v>
+      </c>
+      <c r="B249" t="s">
+        <v>745</v>
+      </c>
+      <c r="C249" t="s">
+        <v>746</v>
+      </c>
+      <c r="D249" t="s">
+        <v>614</v>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>747</v>
+      </c>
+      <c r="B250" t="s">
+        <v>748</v>
+      </c>
+      <c r="C250" t="s">
+        <v>749</v>
+      </c>
+      <c r="D250" t="s">
+        <v>614</v>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>750</v>
+      </c>
+      <c r="B251" t="s">
+        <v>751</v>
+      </c>
+      <c r="C251" t="s">
+        <v>752</v>
+      </c>
+      <c r="D251" t="s">
+        <v>614</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>753</v>
+      </c>
+      <c r="B252" t="s">
+        <v>754</v>
+      </c>
+      <c r="C252" t="s">
+        <v>755</v>
+      </c>
+      <c r="D252" t="s">
+        <v>614</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>756</v>
+      </c>
+      <c r="B253" t="s">
+        <v>757</v>
+      </c>
+      <c r="C253" t="s">
+        <v>758</v>
+      </c>
+      <c r="D253" t="s">
+        <v>614</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>759</v>
+      </c>
+      <c r="B254" t="s">
+        <v>760</v>
+      </c>
+      <c r="C254" t="s">
+        <v>761</v>
+      </c>
+      <c r="D254" t="s">
+        <v>614</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>762</v>
+      </c>
+      <c r="B255" t="s">
+        <v>763</v>
+      </c>
+      <c r="C255" t="s">
+        <v>764</v>
+      </c>
+      <c r="D255" t="s">
+        <v>614</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>765</v>
+      </c>
+      <c r="B256" t="s">
+        <v>766</v>
+      </c>
+      <c r="C256" t="s">
+        <v>767</v>
+      </c>
+      <c r="D256" t="s">
+        <v>614</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>768</v>
+      </c>
+      <c r="B257" t="s">
+        <v>769</v>
+      </c>
+      <c r="C257" t="s">
+        <v>770</v>
+      </c>
+      <c r="D257" t="s">
+        <v>614</v>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>771</v>
+      </c>
+      <c r="B258" t="s">
+        <v>772</v>
+      </c>
+      <c r="C258" t="s">
+        <v>773</v>
+      </c>
+      <c r="D258" t="s">
+        <v>614</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>774</v>
+      </c>
+      <c r="B259" t="s">
+        <v>775</v>
+      </c>
+      <c r="C259" t="s">
+        <v>776</v>
+      </c>
+      <c r="D259" t="s">
+        <v>614</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>777</v>
+      </c>
+      <c r="B260" t="s">
+        <v>778</v>
+      </c>
+      <c r="C260" t="s">
+        <v>779</v>
+      </c>
+      <c r="D260" t="s">
+        <v>614</v>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>780</v>
+      </c>
+      <c r="B261" t="s">
+        <v>781</v>
+      </c>
+      <c r="C261" t="s">
+        <v>782</v>
+      </c>
+      <c r="D261" t="s">
+        <v>614</v>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>783</v>
+      </c>
+      <c r="B262" t="s">
+        <v>784</v>
+      </c>
+      <c r="C262" t="s">
+        <v>785</v>
+      </c>
+      <c r="D262" t="s">
+        <v>614</v>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>786</v>
+      </c>
+      <c r="B263" t="s">
+        <v>787</v>
+      </c>
+      <c r="C263" t="s">
+        <v>788</v>
+      </c>
+      <c r="D263" t="s">
+        <v>614</v>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>789</v>
+      </c>
+      <c r="B264" t="s">
+        <v>790</v>
+      </c>
+      <c r="C264" t="s">
+        <v>791</v>
+      </c>
+      <c r="D264" t="s">
+        <v>614</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>792</v>
+      </c>
+      <c r="B265" t="s">
+        <v>793</v>
+      </c>
+      <c r="C265" t="s">
+        <v>794</v>
+      </c>
+      <c r="D265" t="s">
+        <v>614</v>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>795</v>
+      </c>
+      <c r="B266" t="s">
+        <v>796</v>
+      </c>
+      <c r="C266" t="s">
+        <v>797</v>
+      </c>
+      <c r="D266" t="s">
+        <v>614</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>798</v>
+      </c>
+      <c r="B267" t="s">
+        <v>799</v>
+      </c>
+      <c r="C267" t="s">
+        <v>800</v>
+      </c>
+      <c r="D267" t="s">
+        <v>614</v>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>801</v>
+      </c>
+      <c r="B268" t="s">
+        <v>802</v>
+      </c>
+      <c r="C268" t="s">
+        <v>803</v>
+      </c>
+      <c r="D268" t="s">
+        <v>614</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>804</v>
+      </c>
+      <c r="B269" t="s">
+        <v>805</v>
+      </c>
+      <c r="C269" t="s">
+        <v>806</v>
+      </c>
+      <c r="D269" t="s">
+        <v>614</v>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>807</v>
+      </c>
+      <c r="B270" t="s">
+        <v>808</v>
+      </c>
+      <c r="C270" t="s">
+        <v>809</v>
+      </c>
+      <c r="D270" t="s">
+        <v>614</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>810</v>
+      </c>
+      <c r="B271" t="s">
+        <v>811</v>
+      </c>
+      <c r="C271" t="s">
+        <v>812</v>
+      </c>
+      <c r="D271" t="s">
+        <v>614</v>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>813</v>
+      </c>
+      <c r="B272" t="s">
+        <v>814</v>
+      </c>
+      <c r="C272" t="s">
+        <v>815</v>
+      </c>
+      <c r="D272" t="s">
+        <v>614</v>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>816</v>
+      </c>
+      <c r="B273" t="s">
+        <v>817</v>
+      </c>
+      <c r="C273" t="s">
+        <v>818</v>
+      </c>
+      <c r="D273" t="s">
+        <v>614</v>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>819</v>
+      </c>
+      <c r="B274" t="s">
+        <v>820</v>
+      </c>
+      <c r="C274" t="s">
+        <v>821</v>
+      </c>
+      <c r="D274" t="s">
+        <v>614</v>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>822</v>
+      </c>
+      <c r="B275" t="s">
+        <v>823</v>
+      </c>
+      <c r="C275" t="s">
+        <v>824</v>
+      </c>
+      <c r="D275" t="s">
+        <v>614</v>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>825</v>
+      </c>
+      <c r="B276" t="s">
+        <v>826</v>
+      </c>
+      <c r="C276" t="s">
+        <v>827</v>
+      </c>
+      <c r="D276" t="s">
+        <v>614</v>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>828</v>
+      </c>
+      <c r="B277" t="s">
+        <v>829</v>
+      </c>
+      <c r="C277" t="s">
+        <v>830</v>
+      </c>
+      <c r="D277" t="s">
+        <v>614</v>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>831</v>
+      </c>
+      <c r="B278" t="s">
+        <v>832</v>
+      </c>
+      <c r="C278" t="s">
+        <v>833</v>
+      </c>
+      <c r="D278" t="s">
+        <v>614</v>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>834</v>
+      </c>
+      <c r="B279" t="s">
+        <v>835</v>
+      </c>
+      <c r="C279" t="s">
+        <v>836</v>
+      </c>
+      <c r="D279" t="s">
+        <v>614</v>
+      </c>
+      <c r="E279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>837</v>
+      </c>
+      <c r="B280" t="s">
+        <v>838</v>
+      </c>
+      <c r="C280" t="s">
+        <v>839</v>
+      </c>
+      <c r="D280" t="s">
+        <v>614</v>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>840</v>
+      </c>
+      <c r="B281" t="s">
+        <v>841</v>
+      </c>
+      <c r="C281" t="s">
+        <v>842</v>
+      </c>
+      <c r="D281" t="s">
+        <v>614</v>
+      </c>
+      <c r="E281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>843</v>
+      </c>
+      <c r="B282" t="s">
+        <v>844</v>
+      </c>
+      <c r="C282" t="s">
+        <v>845</v>
+      </c>
+      <c r="D282" t="s">
+        <v>614</v>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>846</v>
+      </c>
+      <c r="B283" t="s">
+        <v>847</v>
+      </c>
+      <c r="C283" t="s">
+        <v>848</v>
+      </c>
+      <c r="D283" t="s">
+        <v>614</v>
+      </c>
+      <c r="E283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>849</v>
+      </c>
+      <c r="B284" t="s">
+        <v>850</v>
+      </c>
+      <c r="C284" t="s">
+        <v>851</v>
+      </c>
+      <c r="D284" t="s">
+        <v>614</v>
+      </c>
+      <c r="E284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>852</v>
+      </c>
+      <c r="B285" t="s">
+        <v>853</v>
+      </c>
+      <c r="C285" t="s">
+        <v>854</v>
+      </c>
+      <c r="D285" t="s">
+        <v>614</v>
+      </c>
+      <c r="E285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>855</v>
+      </c>
+      <c r="B286" t="s">
+        <v>856</v>
+      </c>
+      <c r="C286" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" t="s">
+        <v>614</v>
+      </c>
+      <c r="E286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>858</v>
+      </c>
+      <c r="B287" t="s">
+        <v>859</v>
+      </c>
+      <c r="C287" t="s">
+        <v>860</v>
+      </c>
+      <c r="D287" t="s">
+        <v>614</v>
+      </c>
+      <c r="E287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>861</v>
+      </c>
+      <c r="B288" t="s">
+        <v>862</v>
+      </c>
+      <c r="C288" t="s">
+        <v>863</v>
+      </c>
+      <c r="D288" t="s">
+        <v>614</v>
+      </c>
+      <c r="E288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>864</v>
+      </c>
+      <c r="B289" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" t="s">
+        <v>614</v>
+      </c>
+      <c r="E289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>867</v>
+      </c>
+      <c r="B290" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" t="s">
+        <v>614</v>
+      </c>
+      <c r="E290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>870</v>
+      </c>
+      <c r="B291" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" t="s">
+        <v>872</v>
+      </c>
+      <c r="D291" t="s">
+        <v>614</v>
+      </c>
+      <c r="E291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>873</v>
+      </c>
+      <c r="B292" t="s">
+        <v>874</v>
+      </c>
+      <c r="C292" t="s">
+        <v>875</v>
+      </c>
+      <c r="D292" t="s">
+        <v>614</v>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>876</v>
+      </c>
+      <c r="B293" t="s">
+        <v>877</v>
+      </c>
+      <c r="C293" t="s">
+        <v>878</v>
+      </c>
+      <c r="D293" t="s">
+        <v>614</v>
+      </c>
+      <c r="E293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>879</v>
+      </c>
+      <c r="B294" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" t="s">
+        <v>881</v>
+      </c>
+      <c r="D294" t="s">
+        <v>614</v>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>882</v>
+      </c>
+      <c r="B295" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" t="s">
+        <v>884</v>
+      </c>
+      <c r="D295" t="s">
+        <v>614</v>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>885</v>
+      </c>
+      <c r="B296" t="s">
+        <v>886</v>
+      </c>
+      <c r="C296" t="s">
+        <v>887</v>
+      </c>
+      <c r="D296" t="s">
+        <v>614</v>
+      </c>
+      <c r="E296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>888</v>
+      </c>
+      <c r="B297" t="s">
+        <v>889</v>
+      </c>
+      <c r="C297" t="s">
+        <v>890</v>
+      </c>
+      <c r="D297" t="s">
+        <v>614</v>
+      </c>
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>891</v>
+      </c>
+      <c r="B298" t="s">
+        <v>892</v>
+      </c>
+      <c r="C298" t="s">
+        <v>893</v>
+      </c>
+      <c r="D298" t="s">
+        <v>614</v>
+      </c>
+      <c r="E298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>894</v>
+      </c>
+      <c r="B299" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" t="s">
+        <v>896</v>
+      </c>
+      <c r="D299" t="s">
+        <v>614</v>
+      </c>
+      <c r="E299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>897</v>
+      </c>
+      <c r="B300" t="s">
+        <v>898</v>
+      </c>
+      <c r="C300" t="s">
+        <v>899</v>
+      </c>
+      <c r="D300" t="s">
+        <v>614</v>
+      </c>
+      <c r="E300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>900</v>
+      </c>
+      <c r="B301" t="s">
+        <v>901</v>
+      </c>
+      <c r="C301" t="s">
+        <v>902</v>
+      </c>
+      <c r="D301" t="s">
+        <v>614</v>
+      </c>
+      <c r="E301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>903</v>
+      </c>
+      <c r="B302" t="s">
+        <v>904</v>
+      </c>
+      <c r="C302" t="s">
+        <v>905</v>
+      </c>
+      <c r="D302" t="s">
+        <v>614</v>
+      </c>
+      <c r="E302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>906</v>
+      </c>
+      <c r="B303" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" t="s">
+        <v>908</v>
+      </c>
+      <c r="D303" t="s">
+        <v>614</v>
+      </c>
+      <c r="E303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>909</v>
+      </c>
+      <c r="B304" t="s">
+        <v>910</v>
+      </c>
+      <c r="C304" t="s">
+        <v>911</v>
+      </c>
+      <c r="D304" t="s">
+        <v>614</v>
+      </c>
+      <c r="E304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>912</v>
+      </c>
+      <c r="B305" t="s">
+        <v>913</v>
+      </c>
+      <c r="C305" t="s">
+        <v>914</v>
+      </c>
+      <c r="D305" t="s">
+        <v>614</v>
+      </c>
+      <c r="E305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>915</v>
+      </c>
+      <c r="B306" t="s">
+        <v>916</v>
+      </c>
+      <c r="C306" t="s">
+        <v>917</v>
+      </c>
+      <c r="D306" t="s">
+        <v>614</v>
+      </c>
+      <c r="E306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>918</v>
+      </c>
+      <c r="B307" t="s">
+        <v>919</v>
+      </c>
+      <c r="C307" t="s">
+        <v>920</v>
+      </c>
+      <c r="D307" t="s">
+        <v>614</v>
+      </c>
+      <c r="E307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>921</v>
+      </c>
+      <c r="B308" t="s">
+        <v>922</v>
+      </c>
+      <c r="C308" t="s">
+        <v>923</v>
+      </c>
+      <c r="D308" t="s">
+        <v>614</v>
+      </c>
+      <c r="E308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>924</v>
+      </c>
+      <c r="B309" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" t="s">
+        <v>926</v>
+      </c>
+      <c r="D309" t="s">
+        <v>614</v>
+      </c>
+      <c r="E309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>927</v>
+      </c>
+      <c r="B310" t="s">
+        <v>928</v>
+      </c>
+      <c r="C310" t="s">
+        <v>929</v>
+      </c>
+      <c r="D310" t="s">
+        <v>614</v>
+      </c>
+      <c r="E310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>930</v>
+      </c>
+      <c r="B311" t="s">
+        <v>931</v>
+      </c>
+      <c r="C311" t="s">
+        <v>932</v>
+      </c>
+      <c r="D311" t="s">
+        <v>614</v>
+      </c>
+      <c r="E311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>933</v>
+      </c>
+      <c r="B312" t="s">
+        <v>934</v>
+      </c>
+      <c r="C312" t="s">
+        <v>935</v>
+      </c>
+      <c r="D312" t="s">
+        <v>614</v>
+      </c>
+      <c r="E312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>936</v>
+      </c>
+      <c r="B313" t="s">
+        <v>937</v>
+      </c>
+      <c r="C313" t="s">
+        <v>938</v>
+      </c>
+      <c r="D313" t="s">
+        <v>614</v>
+      </c>
+      <c r="E313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>939</v>
+      </c>
+      <c r="B314" t="s">
+        <v>940</v>
+      </c>
+      <c r="C314" t="s">
+        <v>941</v>
+      </c>
+      <c r="D314" t="s">
+        <v>614</v>
+      </c>
+      <c r="E314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>942</v>
+      </c>
+      <c r="B315" t="s">
+        <v>943</v>
+      </c>
+      <c r="C315" t="s">
+        <v>944</v>
+      </c>
+      <c r="D315" t="s">
+        <v>614</v>
+      </c>
+      <c r="E315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>945</v>
+      </c>
+      <c r="B316" t="s">
+        <v>946</v>
+      </c>
+      <c r="C316" t="s">
+        <v>947</v>
+      </c>
+      <c r="D316" t="s">
+        <v>614</v>
+      </c>
+      <c r="E316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>948</v>
+      </c>
+      <c r="B317" t="s">
+        <v>949</v>
+      </c>
+      <c r="C317" t="s">
+        <v>950</v>
+      </c>
+      <c r="D317" t="s">
+        <v>614</v>
+      </c>
+      <c r="E317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>951</v>
+      </c>
+      <c r="B318" t="s">
+        <v>952</v>
+      </c>
+      <c r="C318" t="s">
+        <v>953</v>
+      </c>
+      <c r="D318" t="s">
+        <v>614</v>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>954</v>
+      </c>
+      <c r="B319" t="s">
+        <v>955</v>
+      </c>
+      <c r="C319" t="s">
+        <v>956</v>
+      </c>
+      <c r="D319" t="s">
+        <v>614</v>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>957</v>
+      </c>
+      <c r="B320" t="s">
+        <v>958</v>
+      </c>
+      <c r="C320" t="s">
+        <v>959</v>
+      </c>
+      <c r="D320" t="s">
+        <v>614</v>
+      </c>
+      <c r="E320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>960</v>
+      </c>
+      <c r="B321" t="s">
+        <v>961</v>
+      </c>
+      <c r="C321" t="s">
+        <v>962</v>
+      </c>
+      <c r="D321" t="s">
+        <v>614</v>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>963</v>
+      </c>
+      <c r="B322" t="s">
+        <v>964</v>
+      </c>
+      <c r="C322" t="s">
+        <v>965</v>
+      </c>
+      <c r="D322" t="s">
+        <v>614</v>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>966</v>
+      </c>
+      <c r="B323" t="s">
+        <v>967</v>
+      </c>
+      <c r="C323" t="s">
+        <v>968</v>
+      </c>
+      <c r="D323" t="s">
+        <v>614</v>
+      </c>
+      <c r="E323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>969</v>
+      </c>
+      <c r="B324" t="s">
+        <v>970</v>
+      </c>
+      <c r="C324" t="s">
+        <v>971</v>
+      </c>
+      <c r="D324" t="s">
+        <v>614</v>
+      </c>
+      <c r="E324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>972</v>
+      </c>
+      <c r="B325" t="s">
+        <v>973</v>
+      </c>
+      <c r="C325" t="s">
+        <v>974</v>
+      </c>
+      <c r="D325" t="s">
+        <v>614</v>
+      </c>
+      <c r="E325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>975</v>
+      </c>
+      <c r="B326" t="s">
+        <v>976</v>
+      </c>
+      <c r="C326" t="s">
+        <v>977</v>
+      </c>
+      <c r="D326" t="s">
+        <v>614</v>
+      </c>
+      <c r="E326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>978</v>
+      </c>
+      <c r="B327" t="s">
+        <v>979</v>
+      </c>
+      <c r="C327" t="s">
+        <v>980</v>
+      </c>
+      <c r="D327" t="s">
+        <v>614</v>
+      </c>
+      <c r="E327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>981</v>
+      </c>
+      <c r="B328" t="s">
+        <v>982</v>
+      </c>
+      <c r="C328" t="s">
+        <v>983</v>
+      </c>
+      <c r="D328" t="s">
+        <v>614</v>
+      </c>
+      <c r="E328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>984</v>
+      </c>
+      <c r="B329" t="s">
+        <v>985</v>
+      </c>
+      <c r="C329" t="s">
+        <v>986</v>
+      </c>
+      <c r="D329" t="s">
+        <v>614</v>
+      </c>
+      <c r="E329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>987</v>
+      </c>
+      <c r="B330" t="s">
+        <v>988</v>
+      </c>
+      <c r="C330" t="s">
+        <v>989</v>
+      </c>
+      <c r="D330" t="s">
+        <v>614</v>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>990</v>
+      </c>
+      <c r="B331" t="s">
+        <v>991</v>
+      </c>
+      <c r="C331" t="s">
+        <v>992</v>
+      </c>
+      <c r="D331" t="s">
+        <v>614</v>
+      </c>
+      <c r="E331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>993</v>
+      </c>
+      <c r="B332" t="s">
+        <v>994</v>
+      </c>
+      <c r="C332" t="s">
+        <v>995</v>
+      </c>
+      <c r="D332" t="s">
+        <v>614</v>
+      </c>
+      <c r="E332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>996</v>
+      </c>
+      <c r="B333" t="s">
+        <v>997</v>
+      </c>
+      <c r="C333" t="s">
+        <v>998</v>
+      </c>
+      <c r="D333" t="s">
+        <v>614</v>
+      </c>
+      <c r="E333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>999</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D334" t="s">
+        <v>614</v>
+      </c>
+      <c r="E334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D335" t="s">
+        <v>614</v>
+      </c>
+      <c r="E335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D336" t="s">
+        <v>614</v>
+      </c>
+      <c r="E336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D337" t="s">
+        <v>614</v>
+      </c>
+      <c r="E337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D338" t="s">
+        <v>614</v>
+      </c>
+      <c r="E338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D339" t="s">
+        <v>614</v>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D340" t="s">
+        <v>614</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D341" t="s">
+        <v>614</v>
+      </c>
+      <c r="E341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D342" t="s">
+        <v>614</v>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D343" t="s">
+        <v>614</v>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D344" t="s">
+        <v>614</v>
+      </c>
+      <c r="E344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D345" t="s">
+        <v>614</v>
+      </c>
+      <c r="E345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D346" t="s">
+        <v>614</v>
+      </c>
+      <c r="E346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D347" t="s">
+        <v>614</v>
+      </c>
+      <c r="E347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D348" t="s">
+        <v>614</v>
+      </c>
+      <c r="E348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D349" t="s">
+        <v>614</v>
+      </c>
+      <c r="E349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D350" t="s">
+        <v>614</v>
+      </c>
+      <c r="E350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D351" t="s">
+        <v>614</v>
+      </c>
+      <c r="E351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D352" t="s">
+        <v>614</v>
+      </c>
+      <c r="E352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D353" t="s">
+        <v>614</v>
+      </c>
+      <c r="E353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D354" t="s">
+        <v>614</v>
+      </c>
+      <c r="E354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D355" t="s">
+        <v>614</v>
+      </c>
+      <c r="E355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D356" t="s">
+        <v>614</v>
+      </c>
+      <c r="E356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D357" t="s">
+        <v>614</v>
+      </c>
+      <c r="E357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D358" t="s">
+        <v>614</v>
+      </c>
+      <c r="E358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D359" t="s">
+        <v>614</v>
+      </c>
+      <c r="E359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D360" t="s">
+        <v>614</v>
+      </c>
+      <c r="E360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D361" t="s">
+        <v>614</v>
+      </c>
+      <c r="E361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D362" t="s">
+        <v>614</v>
+      </c>
+      <c r="E362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D363" t="s">
+        <v>614</v>
+      </c>
+      <c r="E363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D364" t="s">
+        <v>614</v>
+      </c>
+      <c r="E364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D365" t="s">
+        <v>614</v>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D366" t="s">
+        <v>614</v>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D367" t="s">
+        <v>614</v>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D368" t="s">
+        <v>614</v>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D369" t="s">
+        <v>614</v>
+      </c>
+      <c r="E369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D370" t="s">
+        <v>614</v>
+      </c>
+      <c r="E370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D371" t="s">
+        <v>614</v>
+      </c>
+      <c r="E371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D372" t="s">
+        <v>614</v>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D373" t="s">
+        <v>614</v>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D374" t="s">
+        <v>614</v>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D375" t="s">
+        <v>614</v>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D376" t="s">
+        <v>614</v>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D377" t="s">
+        <v>614</v>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D378" t="s">
+        <v>614</v>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D379" t="s">
+        <v>614</v>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D380" t="s">
+        <v>614</v>
+      </c>
+      <c r="E380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D381" t="s">
+        <v>614</v>
+      </c>
+      <c r="E381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D382" t="s">
+        <v>614</v>
+      </c>
+      <c r="E382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D383" t="s">
+        <v>614</v>
+      </c>
+      <c r="E383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D384" t="s">
+        <v>614</v>
+      </c>
+      <c r="E384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D385" t="s">
+        <v>614</v>
+      </c>
+      <c r="E385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D386" t="s">
+        <v>614</v>
+      </c>
+      <c r="E386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D387" t="s">
+        <v>614</v>
+      </c>
+      <c r="E387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D388" t="s">
+        <v>614</v>
+      </c>
+      <c r="E388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D389" t="s">
+        <v>614</v>
+      </c>
+      <c r="E389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D390" t="s">
+        <v>614</v>
+      </c>
+      <c r="E390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D391" t="s">
+        <v>614</v>
+      </c>
+      <c r="E391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D392" t="s">
+        <v>614</v>
+      </c>
+      <c r="E392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D393" t="s">
+        <v>614</v>
+      </c>
+      <c r="E393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D394" t="s">
+        <v>614</v>
+      </c>
+      <c r="E394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D395" t="s">
+        <v>614</v>
+      </c>
+      <c r="E395" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D396" t="s">
+        <v>614</v>
+      </c>
+      <c r="E396" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D397" t="s">
+        <v>614</v>
+      </c>
+      <c r="E397" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D398" t="s">
+        <v>614</v>
+      </c>
+      <c r="E398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D399" t="s">
+        <v>614</v>
+      </c>
+      <c r="E399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D400" t="s">
+        <v>614</v>
+      </c>
+      <c r="E400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D401" t="s">
+        <v>614</v>
+      </c>
+      <c r="E401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D402" t="s">
+        <v>614</v>
+      </c>
+      <c r="E402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D403" t="s">
+        <v>614</v>
+      </c>
+      <c r="E403" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D404" t="s">
+        <v>614</v>
+      </c>
+      <c r="E404" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D405" t="s">
+        <v>614</v>
+      </c>
+      <c r="E405" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D406" t="s">
+        <v>614</v>
+      </c>
+      <c r="E406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D407" t="s">
+        <v>614</v>
+      </c>
+      <c r="E407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D408" t="s">
+        <v>614</v>
+      </c>
+      <c r="E408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D409" t="s">
+        <v>614</v>
+      </c>
+      <c r="E409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D410" t="s">
+        <v>614</v>
+      </c>
+      <c r="E410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D411" t="s">
+        <v>614</v>
+      </c>
+      <c r="E411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D412" t="s">
+        <v>614</v>
+      </c>
+      <c r="E412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D413" t="s">
+        <v>614</v>
+      </c>
+      <c r="E413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D414" t="s">
+        <v>614</v>
+      </c>
+      <c r="E414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D415" t="s">
+        <v>614</v>
+      </c>
+      <c r="E415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D416" t="s">
+        <v>614</v>
+      </c>
+      <c r="E416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D417" t="s">
+        <v>614</v>
+      </c>
+      <c r="E417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D418" t="s">
+        <v>614</v>
+      </c>
+      <c r="E418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D419" t="s">
+        <v>614</v>
+      </c>
+      <c r="E419" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D420" t="s">
+        <v>614</v>
+      </c>
+      <c r="E420" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D421" t="s">
+        <v>614</v>
+      </c>
+      <c r="E421" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D422" t="s">
+        <v>614</v>
+      </c>
+      <c r="E422" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D423" t="s">
+        <v>614</v>
+      </c>
+      <c r="E423" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D424" t="s">
+        <v>614</v>
+      </c>
+      <c r="E424" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D425" t="s">
+        <v>614</v>
+      </c>
+      <c r="E425" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D426" t="s">
+        <v>614</v>
+      </c>
+      <c r="E426" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D427" t="s">
+        <v>614</v>
+      </c>
+      <c r="E427" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D428" t="s">
+        <v>614</v>
+      </c>
+      <c r="E428" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D429" t="s">
+        <v>614</v>
+      </c>
+      <c r="E429" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D430" t="s">
+        <v>614</v>
+      </c>
+      <c r="E430" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D431" t="s">
+        <v>614</v>
+      </c>
+      <c r="E431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D432" t="s">
+        <v>614</v>
+      </c>
+      <c r="E432" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D433" t="s">
+        <v>614</v>
+      </c>
+      <c r="E433" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D434" t="s">
+        <v>614</v>
+      </c>
+      <c r="E434" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D435" t="s">
+        <v>614</v>
+      </c>
+      <c r="E435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D436" t="s">
+        <v>614</v>
+      </c>
+      <c r="E436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D437" t="s">
+        <v>614</v>
+      </c>
+      <c r="E437" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D438" t="s">
+        <v>614</v>
+      </c>
+      <c r="E438" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D439" t="s">
+        <v>614</v>
+      </c>
+      <c r="E439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D440" t="s">
+        <v>614</v>
+      </c>
+      <c r="E440" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D441" t="s">
+        <v>614</v>
+      </c>
+      <c r="E441" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D442" t="s">
+        <v>614</v>
+      </c>
+      <c r="E442" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D443" t="s">
+        <v>614</v>
+      </c>
+      <c r="E443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D444" t="s">
+        <v>614</v>
+      </c>
+      <c r="E444" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D445" t="s">
+        <v>614</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D446" t="s">
+        <v>614</v>
+      </c>
+      <c r="E446" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D447" t="s">
+        <v>614</v>
+      </c>
+      <c r="E447" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D448" t="s">
+        <v>614</v>
+      </c>
+      <c r="E448" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D449" t="s">
+        <v>614</v>
+      </c>
+      <c r="E449" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D450" t="s">
+        <v>614</v>
+      </c>
+      <c r="E450" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D451" t="s">
+        <v>614</v>
+      </c>
+      <c r="E451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D452" t="s">
+        <v>614</v>
+      </c>
+      <c r="E452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D453" t="s">
+        <v>614</v>
+      </c>
+      <c r="E453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4685,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:E453"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
